--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>164.7314145</v>
+        <v>287.5640485</v>
       </c>
       <c r="H2">
-        <v>329.462829</v>
+        <v>575.128097</v>
       </c>
       <c r="I2">
-        <v>0.1559412251502966</v>
+        <v>0.2524418377083044</v>
       </c>
       <c r="J2">
-        <v>0.1160318088037158</v>
+        <v>0.1954419098538289</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>11049.09210377035</v>
+        <v>21242.39278332916</v>
       </c>
       <c r="R2">
-        <v>44196.36841508141</v>
+        <v>84969.57113331664</v>
       </c>
       <c r="S2">
-        <v>0.06060113986820593</v>
+        <v>0.1272052153735209</v>
       </c>
       <c r="T2">
-        <v>0.0371531180039802</v>
+        <v>0.083509872250531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>164.7314145</v>
+        <v>287.5640485</v>
       </c>
       <c r="H3">
-        <v>329.462829</v>
+        <v>575.128097</v>
       </c>
       <c r="I3">
-        <v>0.1559412251502966</v>
+        <v>0.2524418377083044</v>
       </c>
       <c r="J3">
-        <v>0.1160318088037158</v>
+        <v>0.1954419098538289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>695.003594910588</v>
+        <v>1213.235787971351</v>
       </c>
       <c r="R3">
-        <v>4170.021569463528</v>
+        <v>7279.414727828105</v>
       </c>
       <c r="S3">
-        <v>0.003811897816446863</v>
+        <v>0.007265185296304085</v>
       </c>
       <c r="T3">
-        <v>0.003505475879700415</v>
+        <v>0.007154361095053234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>164.7314145</v>
+        <v>287.5640485</v>
       </c>
       <c r="H4">
-        <v>329.462829</v>
+        <v>575.128097</v>
       </c>
       <c r="I4">
-        <v>0.1559412251502966</v>
+        <v>0.2524418377083044</v>
       </c>
       <c r="J4">
-        <v>0.1160318088037158</v>
+        <v>0.1954419098538289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>2067.36058241469</v>
+        <v>4080.219157291259</v>
       </c>
       <c r="R4">
-        <v>12404.16349448814</v>
+        <v>24481.31494374755</v>
       </c>
       <c r="S4">
-        <v>0.01133888709011455</v>
+        <v>0.02443346010820998</v>
       </c>
       <c r="T4">
-        <v>0.01042740312333267</v>
+        <v>0.02406074852690118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>164.7314145</v>
+        <v>287.5640485</v>
       </c>
       <c r="H5">
-        <v>329.462829</v>
+        <v>575.128097</v>
       </c>
       <c r="I5">
-        <v>0.1559412251502966</v>
+        <v>0.2524418377083044</v>
       </c>
       <c r="J5">
-        <v>0.1160318088037158</v>
+        <v>0.1954419098538289</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>5232.588365315756</v>
+        <v>5796.685176527787</v>
       </c>
       <c r="R5">
-        <v>20930.35346126302</v>
+        <v>23186.74070611115</v>
       </c>
       <c r="S5">
-        <v>0.02869926473787297</v>
+        <v>0.03471212465816909</v>
       </c>
       <c r="T5">
-        <v>0.01759483685872176</v>
+        <v>0.02278841388095809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>164.7314145</v>
+        <v>287.5640485</v>
       </c>
       <c r="H6">
-        <v>329.462829</v>
+        <v>575.128097</v>
       </c>
       <c r="I6">
-        <v>0.1559412251502966</v>
+        <v>0.2524418377083044</v>
       </c>
       <c r="J6">
-        <v>0.1160318088037158</v>
+        <v>0.1954419098538289</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>7380.414011375183</v>
+        <v>7264.732953622572</v>
       </c>
       <c r="R6">
-        <v>44282.48406825109</v>
+        <v>43588.39772173543</v>
       </c>
       <c r="S6">
-        <v>0.04047947990550213</v>
+        <v>0.04350319332772665</v>
       </c>
       <c r="T6">
-        <v>0.03722551003841511</v>
+        <v>0.04283958924114412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>164.7314145</v>
+        <v>287.5640485</v>
       </c>
       <c r="H7">
-        <v>329.462829</v>
+        <v>575.128097</v>
       </c>
       <c r="I7">
-        <v>0.1559412251502966</v>
+        <v>0.2524418377083044</v>
       </c>
       <c r="J7">
-        <v>0.1160318088037158</v>
+        <v>0.1954419098538289</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>2007.497625669162</v>
+        <v>2558.778260982626</v>
       </c>
       <c r="R7">
-        <v>12044.98575401497</v>
+        <v>15352.66956589576</v>
       </c>
       <c r="S7">
-        <v>0.01101055573215418</v>
+        <v>0.01532265894437372</v>
       </c>
       <c r="T7">
-        <v>0.01012546489956565</v>
+        <v>0.01508892485924126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>588.021507</v>
       </c>
       <c r="I8">
-        <v>0.1855480824035615</v>
+        <v>0.1720674409908448</v>
       </c>
       <c r="J8">
-        <v>0.2070922515896227</v>
+        <v>0.1998233905849441</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>13146.86254503254</v>
+        <v>14479.07446694046</v>
       </c>
       <c r="R8">
-        <v>78881.17527019526</v>
+        <v>86874.44680164279</v>
       </c>
       <c r="S8">
-        <v>0.07210681641867453</v>
+        <v>0.08670462902944943</v>
       </c>
       <c r="T8">
-        <v>0.06631046210815263</v>
+        <v>0.08538202391133522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>588.021507</v>
       </c>
       <c r="I9">
-        <v>0.1855480824035615</v>
+        <v>0.1720674409908448</v>
       </c>
       <c r="J9">
-        <v>0.2070922515896227</v>
+        <v>0.1998233905849441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
         <v>826.956336754136</v>
@@ -1013,10 +1013,10 @@
         <v>7442.607030787225</v>
       </c>
       <c r="S9">
-        <v>0.004535621221895301</v>
+        <v>0.004952039066138651</v>
       </c>
       <c r="T9">
-        <v>0.006256533448067944</v>
+        <v>0.007314749904724917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>588.021507</v>
       </c>
       <c r="I10">
-        <v>0.1855480824035615</v>
+        <v>0.1720674409908448</v>
       </c>
       <c r="J10">
-        <v>0.2070922515896227</v>
+        <v>0.1998233905849441</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>2459.86775680418</v>
+        <v>2781.127230931391</v>
       </c>
       <c r="R10">
-        <v>22138.80981123762</v>
+        <v>25030.14507838252</v>
       </c>
       <c r="S10">
-        <v>0.01349167774033775</v>
+        <v>0.01665414494498144</v>
       </c>
       <c r="T10">
-        <v>0.01861071040180555</v>
+        <v>0.02460015026589192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>588.021507</v>
       </c>
       <c r="I11">
-        <v>0.1855480824035615</v>
+        <v>0.1720674409908448</v>
       </c>
       <c r="J11">
-        <v>0.2070922515896227</v>
+        <v>0.1998233905849441</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>6226.042768714763</v>
+        <v>3951.091441931333</v>
       </c>
       <c r="R11">
-        <v>37356.25661228858</v>
+        <v>23706.548651588</v>
       </c>
       <c r="S11">
-        <v>0.03414808068470759</v>
+        <v>0.0236602082899901</v>
       </c>
       <c r="T11">
-        <v>0.03140306454748713</v>
+        <v>0.02329929200523948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>588.021507</v>
       </c>
       <c r="I12">
-        <v>0.1855480824035615</v>
+        <v>0.1720674409908448</v>
       </c>
       <c r="J12">
-        <v>0.2070922515896227</v>
+        <v>0.1998233905849441</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>8781.652611970883</v>
+        <v>4951.730743840076</v>
       </c>
       <c r="R12">
-        <v>79034.87350773795</v>
+        <v>44565.57669456068</v>
       </c>
       <c r="S12">
-        <v>0.04816487664452041</v>
+        <v>0.02965230810703164</v>
       </c>
       <c r="T12">
-        <v>0.06643966658719029</v>
+        <v>0.04379998118025967</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>588.021507</v>
       </c>
       <c r="I13">
-        <v>0.1855480824035615</v>
+        <v>0.1720674409908448</v>
       </c>
       <c r="J13">
-        <v>0.2070922515896227</v>
+        <v>0.1998233905849441</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>2388.639274275364</v>
+        <v>1744.094526593604</v>
       </c>
       <c r="R13">
-        <v>21497.75346847827</v>
+        <v>15696.85073934244</v>
       </c>
       <c r="S13">
-        <v>0.01310100969342593</v>
+        <v>0.01044411155325357</v>
       </c>
       <c r="T13">
-        <v>0.01807181449691915</v>
+        <v>0.0154271933174929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>185.9706316666667</v>
+        <v>186.239624</v>
       </c>
       <c r="H14">
-        <v>557.911895</v>
+        <v>558.718872</v>
       </c>
       <c r="I14">
-        <v>0.1760471020788482</v>
+        <v>0.1634928746548915</v>
       </c>
       <c r="J14">
-        <v>0.1964881031539942</v>
+        <v>0.1898656733772076</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>12473.67810273584</v>
+        <v>13757.54467731225</v>
       </c>
       <c r="R14">
-        <v>74842.06861641502</v>
+        <v>82545.26806387349</v>
       </c>
       <c r="S14">
-        <v>0.06841459047272537</v>
+        <v>0.08238391275119201</v>
       </c>
       <c r="T14">
-        <v>0.06291503819618816</v>
+        <v>0.08112721647240402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>185.9706316666667</v>
+        <v>186.239624</v>
       </c>
       <c r="H15">
-        <v>557.911895</v>
+        <v>558.718872</v>
       </c>
       <c r="I15">
-        <v>0.1760471020788482</v>
+        <v>0.1634928746548915</v>
       </c>
       <c r="J15">
-        <v>0.1964881031539942</v>
+        <v>0.1898656733772076</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>784.6120786884044</v>
+        <v>785.7469602119894</v>
       </c>
       <c r="R15">
-        <v>7061.50870819564</v>
+        <v>7071.722641907905</v>
       </c>
       <c r="S15">
-        <v>0.004303374962966827</v>
+        <v>0.004705266130908577</v>
       </c>
       <c r="T15">
-        <v>0.005936167964248406</v>
+        <v>0.006950236967659097</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>185.9706316666667</v>
+        <v>186.239624</v>
       </c>
       <c r="H16">
-        <v>557.911895</v>
+        <v>558.718872</v>
       </c>
       <c r="I16">
-        <v>0.1760471020788482</v>
+        <v>0.1634928746548915</v>
       </c>
       <c r="J16">
-        <v>0.1964881031539942</v>
+        <v>0.1898656733772076</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>2333.910350745078</v>
+        <v>2642.53645633147</v>
       </c>
       <c r="R16">
-        <v>21005.1931567057</v>
+        <v>23782.82810698323</v>
       </c>
       <c r="S16">
-        <v>0.01280083705312696</v>
+        <v>0.01582422575877744</v>
       </c>
       <c r="T16">
-        <v>0.01765774990193946</v>
+        <v>0.02337426104992726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>185.9706316666667</v>
+        <v>186.239624</v>
       </c>
       <c r="H17">
-        <v>557.911895</v>
+        <v>558.718872</v>
       </c>
       <c r="I17">
-        <v>0.1760471020788482</v>
+        <v>0.1634928746548915</v>
       </c>
       <c r="J17">
-        <v>0.1964881031539942</v>
+        <v>0.1898656733772076</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>5907.238558613979</v>
+        <v>3754.198319832421</v>
       </c>
       <c r="R17">
-        <v>35443.43135168387</v>
+        <v>22525.18991899453</v>
       </c>
       <c r="S17">
-        <v>0.03239952991280318</v>
+        <v>0.02248115881766263</v>
       </c>
       <c r="T17">
-        <v>0.02979507219026916</v>
+        <v>0.02213822792635716</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>185.9706316666667</v>
+        <v>186.239624</v>
       </c>
       <c r="H18">
-        <v>557.911895</v>
+        <v>558.718872</v>
       </c>
       <c r="I18">
-        <v>0.1760471020788482</v>
+        <v>0.1634928746548915</v>
       </c>
       <c r="J18">
-        <v>0.1964881031539942</v>
+        <v>0.1898656733772076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>8331.988527039326</v>
+        <v>4704.973173108868</v>
       </c>
       <c r="R18">
-        <v>74987.89674335394</v>
+        <v>42344.75855797981</v>
       </c>
       <c r="S18">
-        <v>0.04569859653311222</v>
+        <v>0.02817465677791471</v>
       </c>
       <c r="T18">
-        <v>0.06303762676630723</v>
+        <v>0.04161731465147908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>185.9706316666667</v>
+        <v>186.239624</v>
       </c>
       <c r="H19">
-        <v>557.911895</v>
+        <v>558.718872</v>
       </c>
       <c r="I19">
-        <v>0.1760471020788482</v>
+        <v>0.1634928746548915</v>
       </c>
       <c r="J19">
-        <v>0.1964881031539942</v>
+        <v>0.1898656733772076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>2266.329119119095</v>
+        <v>1657.181778148384</v>
       </c>
       <c r="R19">
-        <v>20396.96207207186</v>
+        <v>14914.63600333546</v>
       </c>
       <c r="S19">
-        <v>0.01243017314411364</v>
+        <v>0.009923654418436099</v>
       </c>
       <c r="T19">
-        <v>0.01714644813504183</v>
+        <v>0.01465841630938096</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>164.956207</v>
+        <v>187.119606</v>
       </c>
       <c r="H20">
-        <v>329.912414</v>
+        <v>374.239212</v>
       </c>
       <c r="I20">
-        <v>0.1561540225572818</v>
+        <v>0.1642653782915212</v>
       </c>
       <c r="J20">
-        <v>0.1161901458183021</v>
+        <v>0.1271751923041102</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>11064.16969564483</v>
+        <v>13822.54905940996</v>
       </c>
       <c r="R20">
-        <v>44256.67878257933</v>
+        <v>55290.19623763984</v>
       </c>
       <c r="S20">
-        <v>0.06068383618800124</v>
+        <v>0.08277317664011942</v>
       </c>
       <c r="T20">
-        <v>0.03720381715146375</v>
+        <v>0.0543403616486144</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>164.956207</v>
+        <v>187.119606</v>
       </c>
       <c r="H21">
-        <v>329.912414</v>
+        <v>374.239212</v>
       </c>
       <c r="I21">
-        <v>0.1561540225572818</v>
+        <v>0.1642653782915212</v>
       </c>
       <c r="J21">
-        <v>0.1161901458183021</v>
+        <v>0.1271751923041102</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>695.9519968658747</v>
+        <v>789.4596136564639</v>
       </c>
       <c r="R21">
-        <v>4175.711981195249</v>
+        <v>4736.757681938784</v>
       </c>
       <c r="S21">
-        <v>0.003817099532479622</v>
+        <v>0.004727498507733011</v>
       </c>
       <c r="T21">
-        <v>0.00351025945233639</v>
+        <v>0.004655384552662845</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>164.956207</v>
+        <v>187.119606</v>
       </c>
       <c r="H22">
-        <v>329.912414</v>
+        <v>374.239212</v>
       </c>
       <c r="I22">
-        <v>0.1561540225572818</v>
+        <v>0.1642653782915212</v>
       </c>
       <c r="J22">
-        <v>0.1161901458183021</v>
+        <v>0.1271751923041102</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>2070.181702813207</v>
+        <v>2655.022437917834</v>
       </c>
       <c r="R22">
-        <v>12421.09021687924</v>
+        <v>15930.134627507</v>
       </c>
       <c r="S22">
-        <v>0.01135436013624811</v>
+        <v>0.01589899520650603</v>
       </c>
       <c r="T22">
-        <v>0.01044163235838001</v>
+        <v>0.01565646960356669</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>164.956207</v>
+        <v>187.119606</v>
       </c>
       <c r="H23">
-        <v>329.912414</v>
+        <v>374.239212</v>
       </c>
       <c r="I23">
-        <v>0.1561540225572818</v>
+        <v>0.1642653782915212</v>
       </c>
       <c r="J23">
-        <v>0.1161901458183021</v>
+        <v>0.1271751923041102</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>5239.728755773038</v>
+        <v>3771.936902390355</v>
       </c>
       <c r="R23">
-        <v>20958.91502309215</v>
+        <v>15087.74760956142</v>
       </c>
       <c r="S23">
-        <v>0.02873842775658541</v>
+        <v>0.02258738226610926</v>
       </c>
       <c r="T23">
-        <v>0.01761884677435667</v>
+        <v>0.01482855401783582</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>164.956207</v>
+        <v>187.119606</v>
       </c>
       <c r="H24">
-        <v>329.912414</v>
+        <v>374.239212</v>
       </c>
       <c r="I24">
-        <v>0.1561540225572818</v>
+        <v>0.1642653782915212</v>
       </c>
       <c r="J24">
-        <v>0.1161901458183021</v>
+        <v>0.1271751923041102</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>7390.485324862581</v>
+        <v>4727.20416570805</v>
       </c>
       <c r="R24">
-        <v>44342.91194917548</v>
+        <v>28363.2249942483</v>
       </c>
       <c r="S24">
-        <v>0.04053471820667424</v>
+        <v>0.02830778199739401</v>
       </c>
       <c r="T24">
-        <v>0.03727630797207403</v>
+        <v>0.02787597094219073</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>164.956207</v>
+        <v>187.119606</v>
       </c>
       <c r="H25">
-        <v>329.912414</v>
+        <v>374.239212</v>
       </c>
       <c r="I25">
-        <v>0.1561540225572818</v>
+        <v>0.1642653782915212</v>
       </c>
       <c r="J25">
-        <v>0.1161901458183021</v>
+        <v>0.1271751923041102</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>2010.237057072625</v>
+        <v>1665.011960062296</v>
       </c>
       <c r="R25">
-        <v>12061.42234243575</v>
+        <v>9990.071760373774</v>
       </c>
       <c r="S25">
-        <v>0.0110255807372932</v>
+        <v>0.009970543673659488</v>
       </c>
       <c r="T25">
-        <v>0.01013928210969126</v>
+        <v>0.009818451539239714</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>173.5155153333334</v>
+        <v>107.8170136666667</v>
       </c>
       <c r="H26">
-        <v>520.546546</v>
+        <v>323.451041</v>
       </c>
       <c r="I26">
-        <v>0.1642565999071482</v>
+        <v>0.09464856684348255</v>
       </c>
       <c r="J26">
-        <v>0.1833285942521505</v>
+        <v>0.1099161900227057</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>11638.27140178643</v>
+        <v>7964.456492317403</v>
       </c>
       <c r="R26">
-        <v>69829.62841071859</v>
+        <v>47786.73895390442</v>
       </c>
       <c r="S26">
-        <v>0.06383262139729376</v>
+        <v>0.04769332785491848</v>
       </c>
       <c r="T26">
-        <v>0.05870139374691737</v>
+        <v>0.04696580684217774</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>173.5155153333334</v>
+        <v>107.8170136666667</v>
       </c>
       <c r="H27">
-        <v>520.546546</v>
+        <v>323.451041</v>
       </c>
       <c r="I27">
-        <v>0.1642565999071482</v>
+        <v>0.09464856684348255</v>
       </c>
       <c r="J27">
-        <v>0.1833285942521505</v>
+        <v>0.1099161900227057</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>732.063810023497</v>
+        <v>454.8811307078125</v>
       </c>
       <c r="R27">
-        <v>6588.574290211473</v>
+        <v>4093.930176370313</v>
       </c>
       <c r="S27">
-        <v>0.0040151625968026</v>
+        <v>0.00272395171256077</v>
       </c>
       <c r="T27">
-        <v>0.005538601628605463</v>
+        <v>0.00402360023089755</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>173.5155153333334</v>
+        <v>107.8170136666667</v>
       </c>
       <c r="H28">
-        <v>520.546546</v>
+        <v>323.451041</v>
       </c>
       <c r="I28">
-        <v>0.1642565999071482</v>
+        <v>0.09464856684348255</v>
       </c>
       <c r="J28">
-        <v>0.1833285942521505</v>
+        <v>0.1099161900227057</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>2177.600052341596</v>
+        <v>1529.805436178045</v>
       </c>
       <c r="R28">
-        <v>19598.40047107436</v>
+        <v>13768.2489256024</v>
       </c>
       <c r="S28">
-        <v>0.01194351935069256</v>
+        <v>0.009160890299577314</v>
       </c>
       <c r="T28">
-        <v>0.01647514742733067</v>
+        <v>0.01353172310457544</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>173.5155153333334</v>
+        <v>107.8170136666667</v>
       </c>
       <c r="H29">
-        <v>520.546546</v>
+        <v>323.451041</v>
       </c>
       <c r="I29">
-        <v>0.1642565999071482</v>
+        <v>0.09464856684348255</v>
       </c>
       <c r="J29">
-        <v>0.1833285942521505</v>
+        <v>0.1099161900227057</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>5511.609728422309</v>
+        <v>2173.363771163698</v>
       </c>
       <c r="R29">
-        <v>33069.65837053386</v>
+        <v>13040.18262698219</v>
       </c>
       <c r="S29">
-        <v>0.03022961786490209</v>
+        <v>0.01301469233790139</v>
       </c>
       <c r="T29">
-        <v>0.02779958996297304</v>
+        <v>0.0128161643136255</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>173.5155153333334</v>
+        <v>107.8170136666667</v>
       </c>
       <c r="H30">
-        <v>520.546546</v>
+        <v>323.451041</v>
       </c>
       <c r="I30">
-        <v>0.1642565999071482</v>
+        <v>0.09464856684348255</v>
       </c>
       <c r="J30">
-        <v>0.1833285942521505</v>
+        <v>0.1099161900227057</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>7773.965545333909</v>
+        <v>2723.782114736115</v>
       </c>
       <c r="R30">
-        <v>69965.68990800518</v>
+        <v>24514.03903262503</v>
       </c>
       <c r="S30">
-        <v>0.04263799857208483</v>
+        <v>0.01631074681979638</v>
       </c>
       <c r="T30">
-        <v>0.05881577212337152</v>
+        <v>0.02409291044610618</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>173.5155153333334</v>
+        <v>107.8170136666667</v>
       </c>
       <c r="H31">
-        <v>520.546546</v>
+        <v>323.451041</v>
       </c>
       <c r="I31">
-        <v>0.1642565999071482</v>
+        <v>0.09464856684348255</v>
       </c>
       <c r="J31">
-        <v>0.1833285942521505</v>
+        <v>0.1099161900227057</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>2114.544976777503</v>
+        <v>959.3682943795854</v>
       </c>
       <c r="R31">
-        <v>19030.90479099753</v>
+        <v>8634.314649416268</v>
       </c>
       <c r="S31">
-        <v>0.01159768012537233</v>
+        <v>0.00574495781872821</v>
       </c>
       <c r="T31">
-        <v>0.01599808936295249</v>
+        <v>0.008485985085323283</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>171.1876676666667</v>
+        <v>174.3824513333334</v>
       </c>
       <c r="H32">
-        <v>513.563003</v>
+        <v>523.1473540000001</v>
       </c>
       <c r="I32">
-        <v>0.1620529679028636</v>
+        <v>0.1530839015109555</v>
       </c>
       <c r="J32">
-        <v>0.1808690963822147</v>
+        <v>0.1777776438572034</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N32">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O32">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P32">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q32">
-        <v>11482.13479996938</v>
+        <v>12881.65382656465</v>
       </c>
       <c r="R32">
-        <v>68892.80879981625</v>
+        <v>77289.92295938793</v>
       </c>
       <c r="S32">
-        <v>0.06297625637142587</v>
+        <v>0.0771388405293619</v>
       </c>
       <c r="T32">
-        <v>0.0579138681922064</v>
+        <v>0.07596215335093134</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>171.1876676666667</v>
+        <v>174.3824513333334</v>
       </c>
       <c r="H33">
-        <v>513.563003</v>
+        <v>523.1473540000001</v>
       </c>
       <c r="I33">
-        <v>0.1620529679028636</v>
+        <v>0.1530839015109555</v>
       </c>
       <c r="J33">
-        <v>0.1808690963822147</v>
+        <v>0.1777776438572034</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P33">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q33">
-        <v>722.2425958874551</v>
+        <v>735.7214222548143</v>
       </c>
       <c r="R33">
-        <v>6500.183362987096</v>
+        <v>6621.492800293329</v>
       </c>
       <c r="S33">
-        <v>0.003961296019716979</v>
+        <v>0.004405699627505404</v>
       </c>
       <c r="T33">
-        <v>0.005464296913819714</v>
+        <v>0.006507741659572653</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>171.1876676666667</v>
+        <v>174.3824513333334</v>
       </c>
       <c r="H34">
-        <v>513.563003</v>
+        <v>523.1473540000001</v>
       </c>
       <c r="I34">
-        <v>0.1620529679028636</v>
+        <v>0.1530839015109555</v>
       </c>
       <c r="J34">
-        <v>0.1808690963822147</v>
+        <v>0.1777776438572034</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N34">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O34">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P34">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q34">
-        <v>2148.385827947664</v>
+        <v>2474.296151890758</v>
       </c>
       <c r="R34">
-        <v>19335.47245152898</v>
+        <v>22268.66536701682</v>
       </c>
       <c r="S34">
-        <v>0.01178328760658088</v>
+        <v>0.01481675713793155</v>
       </c>
       <c r="T34">
-        <v>0.01625412031385885</v>
+        <v>0.02188611022964463</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>171.1876676666667</v>
+        <v>174.3824513333334</v>
       </c>
       <c r="H35">
-        <v>513.563003</v>
+        <v>523.1473540000001</v>
       </c>
       <c r="I35">
-        <v>0.1620529679028636</v>
+        <v>0.1530839015109555</v>
       </c>
       <c r="J35">
-        <v>0.1808690963822147</v>
+        <v>0.1777776438572034</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N35">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O35">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P35">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q35">
-        <v>5437.66713129353</v>
+        <v>3515.182707863816</v>
       </c>
       <c r="R35">
-        <v>32626.00278776118</v>
+        <v>21091.0962471829</v>
       </c>
       <c r="S35">
-        <v>0.02982406366834593</v>
+        <v>0.02104986843958615</v>
       </c>
       <c r="T35">
-        <v>0.02742663650976005</v>
+        <v>0.020728770661469</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>171.1876676666667</v>
+        <v>174.3824513333334</v>
       </c>
       <c r="H36">
-        <v>513.563003</v>
+        <v>523.1473540000001</v>
       </c>
       <c r="I36">
-        <v>0.1620529679028636</v>
+        <v>0.1530839015109555</v>
       </c>
       <c r="J36">
-        <v>0.1808690963822147</v>
+        <v>0.1777776438572034</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N36">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O36">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P36">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q36">
-        <v>7669.671658296268</v>
+        <v>4405.425321221095</v>
       </c>
       <c r="R36">
-        <v>69027.04492466641</v>
+        <v>39648.82789098986</v>
       </c>
       <c r="S36">
-        <v>0.04206597614920991</v>
+        <v>0.02638088291247883</v>
       </c>
       <c r="T36">
-        <v>0.05802671209241365</v>
+        <v>0.03896769758746706</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>171.1876676666667</v>
+        <v>174.3824513333334</v>
       </c>
       <c r="H37">
-        <v>513.563003</v>
+        <v>523.1473540000001</v>
       </c>
       <c r="I37">
-        <v>0.1620529679028636</v>
+        <v>0.1530839015109555</v>
       </c>
       <c r="J37">
-        <v>0.1808690963822147</v>
+        <v>0.1777776438572034</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N37">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O37">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P37">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q37">
-        <v>2086.176686018045</v>
+        <v>1551.675280328355</v>
       </c>
       <c r="R37">
-        <v>18775.5901741624</v>
+        <v>13965.07752295519</v>
       </c>
       <c r="S37">
-        <v>0.01144208808758406</v>
+        <v>0.009291852864091647</v>
       </c>
       <c r="T37">
-        <v>0.01578346236015604</v>
+        <v>0.01372517036811868</v>
       </c>
     </row>
   </sheetData>
